--- a/data/Subset1_WithDialogActs/Math HK4 transcript.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Math HK4 transcript.xlsx_with_dialog_acts.xlsx
@@ -681,12 +681,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1731,12 +1731,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2025,12 +2025,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2319,12 +2319,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2445,12 +2445,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2529,12 +2529,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2571,12 +2571,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3033,12 +3033,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3079,12 +3079,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3121,12 +3121,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3163,12 +3163,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3415,12 +3415,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3499,12 +3499,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3881,12 +3881,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4267,12 +4267,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4309,12 +4309,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4351,12 +4351,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4519,12 +4519,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4943,12 +4943,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6261,12 +6261,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6433,12 +6433,12 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6475,12 +6475,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6517,12 +6517,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6605,12 +6605,12 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6861,12 +6861,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7155,12 +7155,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8465,12 +8465,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8889,12 +8889,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9271,12 +9271,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9527,12 +9527,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9783,12 +9783,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10627,12 +10627,12 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11009,12 +11009,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11093,12 +11093,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11219,12 +11219,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11601,12 +11601,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11735,12 +11735,12 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11777,12 +11777,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12201,12 +12201,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12327,12 +12327,12 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12453,12 +12453,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12537,12 +12537,12 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12579,12 +12579,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12621,12 +12621,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12663,12 +12663,12 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12705,12 +12705,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12747,12 +12747,12 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12789,12 +12789,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12999,12 +12999,12 @@
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13125,12 +13125,12 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13209,12 +13209,12 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13377,12 +13377,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13629,12 +13629,12 @@
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14175,12 +14175,12 @@
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14469,12 +14469,12 @@
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14679,12 +14679,12 @@
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14805,12 +14805,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14977,12 +14977,12 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15019,12 +15019,12 @@
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15409,12 +15409,12 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15581,12 +15581,12 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15921,12 +15921,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16005,12 +16005,12 @@
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16093,12 +16093,12 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16135,12 +16135,12 @@
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16387,12 +16387,12 @@
       <c r="H377" t="inlineStr"/>
       <c r="I377" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16513,12 +16513,12 @@
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16597,12 +16597,12 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16933,12 +16933,12 @@
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17315,12 +17315,12 @@
       <c r="H399" t="inlineStr"/>
       <c r="I399" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17609,12 +17609,12 @@
       <c r="H406" t="inlineStr"/>
       <c r="I406" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17949,12 +17949,12 @@
       <c r="H414" t="inlineStr"/>
       <c r="I414" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18075,12 +18075,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18159,12 +18159,12 @@
       <c r="H419" t="inlineStr"/>
       <c r="I419" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18453,12 +18453,12 @@
       <c r="H426" t="inlineStr"/>
       <c r="I426" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18747,12 +18747,12 @@
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18831,12 +18831,12 @@
       <c r="H435" t="inlineStr"/>
       <c r="I435" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18915,12 +18915,12 @@
       <c r="H437" t="inlineStr"/>
       <c r="I437" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19083,12 +19083,12 @@
       <c r="H441" t="inlineStr"/>
       <c r="I441" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19377,12 +19377,12 @@
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19419,12 +19419,12 @@
       <c r="H449" t="inlineStr"/>
       <c r="I449" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19839,12 +19839,12 @@
       <c r="H459" t="inlineStr"/>
       <c r="I459" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19965,12 +19965,12 @@
       <c r="H462" t="inlineStr"/>
       <c r="I462" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20091,12 +20091,12 @@
       <c r="H465" t="inlineStr"/>
       <c r="I465" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20385,12 +20385,12 @@
       <c r="H472" t="inlineStr"/>
       <c r="I472" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20553,12 +20553,12 @@
       <c r="H476" t="inlineStr"/>
       <c r="I476" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20721,12 +20721,12 @@
       <c r="H480" t="inlineStr"/>
       <c r="I480" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20889,12 +20889,12 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
